--- a/biology/Microbiologie/Salarchaeum/Salarchaeum.xlsx
+++ b/biology/Microbiologie/Salarchaeum/Salarchaeum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salarchaeum est un genre d'archées halophiles de la famille des Halobacteriaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (17 novembre 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (17 novembre 2019) :
 Salarchaeum japonicum Shimane &amp; al., 2011</t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Yasuhiro Shimane, Yuji Hatada, Hiroaki Minegishi, Akinobu Echigo, Syuhei Nagaoka, Masayuki Miyazaki, Yukari Ohta, Tadashi Maruyama, Ron Usami, William D. Grant et Koki Horikoshi, « Salarchaeum japonicum gen. nov., sp. nov., an aerobic, extremely halophilic member of the Archaea isolated from commercial salt », International Journal of Systematic and Evolutionary Microbiolgy, vol. 61, no 9,‎ septembre 2011, p. 2266-2270 (lire en ligne) DOI 10.1099/ijs.0.025064-0 PMID 20952548</t>
         </is>
